--- a/2025-transition/COS Project Plan.xlsx
+++ b/2025-transition/COS Project Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dod365-my.sharepoint-mil.us/personal/stephen_m_sullivan14_ctr_mail_mil/Documents/Desktop/Transition/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://boozallen-my.sharepoint.us/personal/612130_bah_com/Documents/Desktop/git transfer folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{C2D9FE11-12B3-4597-8E4F-2654BFEA7E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F0DAF53-2080-4E55-8B2F-860C9A7AEB76}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{C2D9FE11-12B3-4597-8E4F-2654BFEA7E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3306C794-7C0E-45F1-A504-083A63B4E049}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7270" xr2:uid="{CEB79E7B-6013-4D3B-836E-2A45AD9AD539}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CEB79E7B-6013-4D3B-836E-2A45AD9AD539}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Tasks</t>
   </si>
@@ -71,9 +71,6 @@
     <t>5c</t>
   </si>
   <si>
-    <t xml:space="preserve"> A (MINIMUM) 60 DAY Public Review: Request a first Public Review</t>
-  </si>
-  <si>
     <t>Target Date (start)</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
     <t>Request Member-wide 14 day ballot to approve the COS as an OASIS Standard</t>
   </si>
   <si>
-    <t>https://www.oasis-open.org/project-administration-support-requests/form-request-a-first-public-review/</t>
-  </si>
-  <si>
     <t>https://www.oasis-open.org/project-administration-support-requests/form-request-a-special-majority-vote-to-approve-a-candidate-for-oasis-standard/</t>
   </si>
   <si>
@@ -131,7 +125,16 @@
     <t>Where is this notification made, who submits?</t>
   </si>
   <si>
-    <t>PGB Simple Majority Vote to conduct  Public Review</t>
+    <t>Motion to publish and coduct review, 28 Aug PGB meeting</t>
+  </si>
+  <si>
+    <t>PGB Simple Majority Vote to conduct  Public Review (motion or ballot)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.oasis-open.org/project-administration-support-requests/form-request-a-first-public-review/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A (MINIMUM) 60 DAY Public Review: Request a first Public Review (separate request for each specification)</t>
   </si>
 </sst>
 </file>
@@ -141,7 +144,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +191,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -216,7 +225,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -238,9 +247,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -258,8 +264,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -598,34 +610,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD5CCF8-8C58-47E9-B273-0CD7423CB219}">
   <dimension ref="A2:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.81640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="37.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.90625" customWidth="1"/>
+    <col min="3" max="3" width="22.453125" customWidth="1"/>
     <col min="4" max="4" width="22.1796875" style="7" customWidth="1"/>
     <col min="5" max="5" width="28" style="7" customWidth="1"/>
     <col min="6" max="6" width="37.81640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -636,16 +648,16 @@
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>45901</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>45911</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -656,7 +668,7 @@
     </row>
     <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -667,10 +679,10 @@
     </row>
     <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="7">
         <v>45905</v>
@@ -681,10 +693,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
         <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
       </c>
       <c r="D8" s="7">
         <v>45905</v>
@@ -701,16 +713,16 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <v>45911</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -718,26 +730,34 @@
         <v>3</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="D10" s="8">
+        <v>45897</v>
+      </c>
+      <c r="E10" s="9">
+        <v>45897</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>4</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="14" t="s">
-        <v>26</v>
+        <v>18</v>
+      </c>
+      <c r="D11" s="18">
+        <v>45912</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -745,10 +765,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -756,38 +776,38 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>30</v>
+        <v>21</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>29</v>
+      <c r="B15" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -799,11 +819,13 @@
     <hyperlink ref="F14" r:id="rId2" xr:uid="{F789880C-5100-4083-A09A-93B3DF5FD356}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{102d0191-eeae-4761-b1cb-1a83e86ef445}" enabled="0" method="" siteId="{102d0191-eeae-4761-b1cb-1a83e86ef445}" removed="1"/>
+  <clbl:label id="{3de9faa6-9fe1-49b3-9a08-227a296b54a6}" enabled="1" method="Privileged" siteId="{66d73691-ea97-48b1-95d5-e94f0a46b878}" removed="0"/>
 </clbl:labelList>
 </file>